--- a/VungTrong/NoSMOTE/Ket qua phan loai dao ham bac 1.xlsx
+++ b/VungTrong/NoSMOTE/Ket qua phan loai dao ham bac 1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS_Workspace\Xử lí dữ liệu HPLC-IR_Cô Thảo\VungTrong\NoSMOTE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7BA0E7-7484-40C4-AE92-F6ADE78338C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="PCA-SVC" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,8 @@
     <sheet name="PCA-DecisionTreeClassifier" sheetId="5" r:id="rId5"/>
     <sheet name="PCA-AdaBoostClassifier" sheetId="6" r:id="rId6"/>
     <sheet name="PCA-GradientBoostingClassifier" sheetId="7" r:id="rId7"/>
-    <sheet name="1D-CNN" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -44,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,413 +101,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA55A4F-7495-D83E-407D-E33A82132587}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="2011680"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B950F21E-EFC4-BB6D-A2C7-D4B28FED4DF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="1828800"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0CB3AC-222E-1F54-8666-8BE99BC3D228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="2011680"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A81932-4D81-F4C9-BE96-0F7770B8D8A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1828800"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106FB2CC-A253-41C7-B2F1-30E2D1A91CF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="1828800"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847ED281-BAC3-977A-424E-02306D7072A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="2011680"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9161E2-EE2C-C3FA-F4C3-2E79675B07A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="2011680"/>
-          <a:ext cx="4676775" cy="4257675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F99ADD-608C-FC0F-4942-F75C0F575736}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="365760"/>
-          <a:ext cx="4029075" cy="3609975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -586,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -621,10 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,21 +423,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.88888888888888884</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.94117647058823528</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -856,13 +445,13 @@
         <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.93333333333333335</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -876,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0.96875</v>
       </c>
@@ -890,29 +479,29 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.97222222222222221</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="B7">
         <v>0.96875</v>
       </c>
       <c r="C7">
-        <v>0.96862745098039216</v>
+        <v>0.9686274509803922</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.97222222222222221</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="B8">
         <v>0.96875</v>
       </c>
       <c r="C8">
-        <v>0.96862745098039216</v>
+        <v>0.9686274509803922</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -920,21 +509,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,99 +534,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C2">
-        <v>0.88888888888888884</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.88888888888888884</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C5">
-        <v>0.8571428571428571</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C6">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="D6">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.9</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C7">
-        <v>0.87301587301587302</v>
+        <v>0.9078431372549021</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.9</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="C8">
-        <v>0.87301587301587302</v>
+        <v>0.9078431372549021</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1048,21 +634,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,49 +659,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.77777777777777779</v>
+        <v>0.6</v>
       </c>
       <c r="B2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>0.82352941176470584</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>0.77777777777777779</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1126,49 +709,49 @@
         <v>0.875</v>
       </c>
       <c r="C5">
-        <v>0.93333333333333335</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="B6">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="D6">
-        <v>0.84375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.86944444444444446</v>
+        <v>0.7863636363636364</v>
       </c>
       <c r="B7">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>0.84794584500466863</v>
+        <v>0.724561403508772</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.86944444444444446</v>
+        <v>0.7863636363636364</v>
       </c>
       <c r="B8">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="C8">
-        <v>0.84794584500466863</v>
+        <v>0.724561403508772</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1176,21 +759,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,63 +784,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.61538461538461542</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.76190476190476186</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C3">
-        <v>0.94117647058823528</v>
+        <v>0.875</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>0.54545454545454541</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.93333333333333335</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0.8125</v>
       </c>
@@ -1274,29 +854,29 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.87606837606837606</v>
+        <v>0.8725961538461539</v>
       </c>
       <c r="B7">
         <v>0.8125</v>
       </c>
       <c r="C7">
-        <v>0.79546727782021898</v>
+        <v>0.8158195970695971</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.87606837606837606</v>
+        <v>0.8725961538461539</v>
       </c>
       <c r="B8">
         <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>0.79546727782021898</v>
+        <v>0.8158195970695971</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1304,21 +884,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,35 +909,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.53846153846153844</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.66666666666666663</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="B3">
         <v>0.75</v>
       </c>
       <c r="C3">
-        <v>0.70588235294117652</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1368,63 +945,63 @@
         <v>0.375</v>
       </c>
       <c r="C4">
-        <v>0.54545454545454541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="B6">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="D6">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.76556776556776562</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>0.6795008912655971</v>
+        <v>0.7173160173160174</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.76556776556776562</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="C8">
-        <v>0.6795008912655971</v>
+        <v>0.7173160173160174</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1432,21 +1009,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,99 +1034,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>0.66666666666666663</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.42857142857142849</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.625</v>
+      </c>
+      <c r="C4">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>0.75</v>
       </c>
-      <c r="C3">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.5</v>
+        <v>0.78125</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.78125</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.48214285714285721</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.78125</v>
       </c>
       <c r="C7">
-        <v>0.40303030303030302</v>
+        <v>0.7830639948287007</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.48214285714285721</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.78125</v>
       </c>
       <c r="C8">
-        <v>0.40303030303030302</v>
+        <v>0.7830639948287007</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1560,21 +1134,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,99 +1159,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.61538461538461542</v>
+        <v>0.8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.76190476190476186</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.88888888888888884</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.94117647058823528</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>0.54545454545454541</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="B6">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="C6">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="D6">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.87606837606837606</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="C7">
-        <v>0.79546727782021898</v>
+        <v>0.8998240321769734</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.87606837606837606</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.90625</v>
       </c>
       <c r="C8">
-        <v>0.79546727782021898</v>
+        <v>0.8998240321769734</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1688,21 +1259,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64141F5-A031-40DC-BEA6-F4FC08E087A4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>